--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T11:08:38+00:00</t>
+    <t>2022-08-03T11:27:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T11:27:08+00:00</t>
+    <t>2022-08-03T13:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T13:20:18+00:00</t>
+    <t>2022-08-03T14:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T14:33:23+00:00</t>
+    <t>2022-08-03T15:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T15:28:41+00:00</t>
+    <t>2022-08-03T16:21:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T16:21:55+00:00</t>
+    <t>2022-08-04T00:56:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T00:56:19+00:00</t>
+    <t>2022-08-04T02:05:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T02:05:34+00:00</t>
+    <t>2022-08-04T02:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T02:21:29+00:00</t>
+    <t>2022-08-04T02:24:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T02:24:31+00:00</t>
+    <t>2022-08-04T02:27:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T02:27:35+00:00</t>
+    <t>2022-08-04T05:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T05:11:55+00:00</t>
+    <t>2022-08-04T12:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T12:50:04+00:00</t>
+    <t>2022-08-04T13:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T13:25:29+00:00</t>
+    <t>2022-08-04T15:34:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T15:34:31+00:00</t>
+    <t>2022-08-05T02:10:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T02:10:27+00:00</t>
+    <t>2022-08-05T03:56:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T03:56:21+00:00</t>
+    <t>2022-08-05T04:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T04:18:29+00:00</t>
+    <t>2022-08-05T04:22:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T04:22:43+00:00</t>
+    <t>2022-08-05T05:15:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T05:15:33+00:00</t>
+    <t>2022-08-05T05:39:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T05:39:16+00:00</t>
+    <t>2022-08-05T05:54:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T05:54:56+00:00</t>
+    <t>2022-08-05T07:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T07:10:48+00:00</t>
+    <t>2022-08-05T07:27:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T07:27:31+00:00</t>
+    <t>2022-08-05T07:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T07:43:50+00:00</t>
+    <t>2022-08-05T07:55:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T07:55:02+00:00</t>
+    <t>2022-08-05T08:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T08:06:18+00:00</t>
+    <t>2022-08-05T08:47:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T08:47:13+00:00</t>
+    <t>2022-08-05T10:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T10:40:45+00:00</t>
+    <t>2022-08-05T11:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T11:59:14+00:00</t>
+    <t>2022-08-06T02:11:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T02:11:54+00:00</t>
+    <t>2022-08-06T02:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T02:25:12+00:00</t>
+    <t>2022-08-06T07:41:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T07:41:34+00:00</t>
+    <t>2022-08-06T07:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T07:51:51+00:00</t>
+    <t>2022-08-06T08:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T08:21:33+00:00</t>
+    <t>2022-08-06T09:00:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T09:00:14+00:00</t>
+    <t>2022-08-06T09:11:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T09:11:16+00:00</t>
+    <t>2022-08-08T02:28:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T02:28:59+00:00</t>
+    <t>2022-08-08T02:48:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T02:48:30+00:00</t>
+    <t>2022-08-08T06:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T06:09:56+00:00</t>
+    <t>2022-08-08T10:00:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:00:27+00:00</t>
+    <t>2022-08-08T10:28:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:28:38+00:00</t>
+    <t>2022-08-08T10:40:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:40:02+00:00</t>
+    <t>2022-08-08T11:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:46:36+00:00</t>
+    <t>2022-08-08T12:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:43:36+00:00</t>
+    <t>2022-08-08T13:51:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:51:59+00:00</t>
+    <t>2022-08-08T14:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:49:45+00:00</t>
+    <t>2022-08-09T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T06:53:55+00:00</t>
+    <t>2022-08-09T08:44:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T08:44:45+00:00</t>
+    <t>2022-08-09T08:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T08:50:44+00:00</t>
+    <t>2022-08-09T10:07:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T10:07:05+00:00</t>
+    <t>2022-08-09T11:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T11:02:47+00:00</t>
+    <t>2022-08-09T11:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T11:40:37+00:00</t>
+    <t>2022-08-09T11:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T11:56:01+00:00</t>
+    <t>2022-08-09T12:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:47:03+00:00</t>
+    <t>2022-08-09T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T13:07:41+00:00</t>
+    <t>2022-08-09T13:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T13:29:57+00:00</t>
+    <t>2022-08-09T15:06:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:06:14+00:00</t>
+    <t>2022-08-09T15:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:26:10+00:00</t>
+    <t>2022-08-09T15:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:34:44+00:00</t>
+    <t>2022-08-09T15:46:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:46:26+00:00</t>
+    <t>2022-08-10T01:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T01:00:29+00:00</t>
+    <t>2022-08-10T14:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T14:02:51+00:00</t>
+    <t>2022-08-12T01:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
